--- a/Tarifario SOAT 202102.xlsx
+++ b/Tarifario SOAT 202102.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFERNANDEZ\Desktop\Streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\GIT\SOAT - TCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24072B75-112E-4C68-AE28-EC714437866B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EEC1E0-AC03-4A6A-9B63-F00E11E2E261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" tabRatio="742" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="742" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TD-CrecerSeguros v.2" sheetId="12" r:id="rId1"/>
     <sheet name="TF-CrecerSeguros v.2" sheetId="4" r:id="rId2"/>
     <sheet name="TD_Crecer_M" sheetId="43" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="45" r:id="rId4"/>
+    <sheet name="llaves" sheetId="45" r:id="rId4"/>
     <sheet name="TF_Crecer_M" sheetId="44" r:id="rId5"/>
     <sheet name="Comisiones" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="176">
   <si>
     <t>Canal o Broker</t>
   </si>
@@ -1630,6 +1630,18 @@
   <si>
     <t>Excepto No riesgo /5</t>
   </si>
+  <si>
+    <t>COMPLETO</t>
+  </si>
+  <si>
+    <t>RIESGOS</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>MINIMO</t>
+  </si>
 </sst>
 </file>
 
@@ -1639,7 +1651,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1834,6 +1846,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2353,7 +2373,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -2742,14 +2762,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3175,12 +3196,12 @@
       <selection pane="bottomRight" activeCell="AX4" sqref="AX4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.95" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="61" width="20.625" style="1" customWidth="1"/>
-    <col min="62" max="16384" width="11.5" style="1"/>
+    <col min="1" max="2" width="3.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="61" width="20.6640625" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:61" ht="15.65" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3196,7 +3217,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:61" ht="15.65" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3267,7 @@
       <c r="AA5" s="7"/>
       <c r="AK5" s="7"/>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3274,7 +3295,7 @@
       </c>
     </row>
     <row r="7" spans="2:61" ht="15.65" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:61" ht="26.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:61" ht="26.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -3345,8 +3366,8 @@
       <c r="BH8" s="17"/>
       <c r="BI8" s="18"/>
     </row>
-    <row r="9" spans="2:61" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="140" t="s">
+    <row r="9" spans="2:61" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -3524,8 +3545,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:61" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="140"/>
+    <row r="10" spans="2:61" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="143"/>
       <c r="D10" s="19" t="s">
         <v>20</v>
       </c>
@@ -3681,8 +3702,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:61" ht="25.85" x14ac:dyDescent="0.3">
-      <c r="C11" s="140"/>
+    <row r="11" spans="2:61" ht="25.05" x14ac:dyDescent="0.3">
+      <c r="C11" s="143"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -3786,8 +3807,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:61" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="140"/>
+    <row r="12" spans="2:61" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="143"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -3871,7 +3892,7 @@
       <c r="BH12" s="30"/>
       <c r="BI12" s="29"/>
     </row>
-    <row r="13" spans="2:61" s="32" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:61" s="32" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="83"/>
       <c r="D13" s="19" t="s">
         <v>44</v>
@@ -4048,7 +4069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:61" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:61" ht="15.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="33" t="s">
         <v>46</v>
       </c>
@@ -4227,7 +4248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="102">
         <f t="shared" ref="B15:B39" si="0">D15+F15+H15+J15+L15+N15+P15+R15+T15+V15+X15+Z15+AB15+AD15+AF15+AH15+AJ15+AV15+AX15+AZ15+BB15+BD15+BF15+BH15</f>
         <v>8122</v>
@@ -4410,7 +4431,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="102"/>
       <c r="C16" s="45" t="s">
         <v>128</v>
@@ -4590,7 +4611,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="102">
         <f t="shared" si="0"/>
         <v>7684</v>
@@ -4773,7 +4794,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="102">
         <f t="shared" si="0"/>
         <v>7915</v>
@@ -4956,7 +4977,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="102">
         <f t="shared" si="0"/>
         <v>8166</v>
@@ -5139,7 +5160,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="102">
         <f t="shared" si="0"/>
         <v>8067</v>
@@ -5322,7 +5343,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="102">
         <f t="shared" si="0"/>
         <v>7837</v>
@@ -5505,7 +5526,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="102">
         <f t="shared" si="0"/>
         <v>7553</v>
@@ -5688,7 +5709,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="2:61" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:61" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="102">
         <f t="shared" si="0"/>
         <v>7728</v>
@@ -5871,7 +5892,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="102">
         <f t="shared" si="0"/>
         <v>8590</v>
@@ -6054,7 +6075,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="102">
         <f t="shared" si="0"/>
         <v>7812</v>
@@ -6237,7 +6258,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="102">
         <f t="shared" si="0"/>
         <v>7767</v>
@@ -6420,7 +6441,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="102">
         <f t="shared" si="0"/>
         <v>8498</v>
@@ -6603,7 +6624,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="102">
         <f t="shared" si="0"/>
         <v>8379</v>
@@ -6786,7 +6807,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="102">
         <f t="shared" si="0"/>
         <v>7650</v>
@@ -6969,7 +6990,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="102">
         <f t="shared" si="0"/>
         <v>7463</v>
@@ -7152,7 +7173,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="102">
         <f t="shared" si="0"/>
         <v>7398</v>
@@ -7335,7 +7356,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="102">
         <f t="shared" si="0"/>
         <v>7389</v>
@@ -7518,7 +7539,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="102">
         <f t="shared" si="0"/>
         <v>8540</v>
@@ -7701,7 +7722,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="102">
         <f t="shared" si="0"/>
         <v>7853</v>
@@ -7884,7 +7905,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="102">
         <f t="shared" si="0"/>
         <v>7679</v>
@@ -8067,7 +8088,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="102">
         <f t="shared" si="0"/>
         <v>7695</v>
@@ -8250,7 +8271,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="102">
         <f t="shared" si="0"/>
         <v>7203</v>
@@ -8434,7 +8455,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="102">
         <f t="shared" si="0"/>
         <v>7780</v>
@@ -8617,7 +8638,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="2:61" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:61" ht="20.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="102">
         <f t="shared" si="0"/>
         <v>7359</v>
@@ -8800,22 +8821,22 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C41" s="64" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C42" s="64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C43" s="64" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C44" s="64" t="s">
         <v>72</v>
       </c>
@@ -8824,7 +8845,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C45" s="64" t="s">
         <v>73</v>
       </c>
@@ -8834,15 +8855,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C47" s="64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C48" s="64"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C49" s="64"/>
     </row>
   </sheetData>
@@ -8869,12 +8890,12 @@
       <selection pane="bottomRight" activeCell="AX4" sqref="AX4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.95" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
-    <col min="4" max="61" width="20.625" style="1" customWidth="1"/>
-    <col min="62" max="16384" width="11.5" style="1"/>
+    <col min="1" max="2" width="3.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="1" customWidth="1"/>
+    <col min="4" max="61" width="20.6640625" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:61" ht="15.65" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8890,7 +8911,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:61" ht="15.65" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -8973,7 +8994,7 @@
       <c r="BH5" s="66"/>
       <c r="BI5" s="66"/>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -8997,7 +9018,7 @@
       <c r="AK6" s="10"/>
     </row>
     <row r="7" spans="2:61" ht="15.65" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:61" ht="26.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:61" ht="26.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
@@ -9068,8 +9089,8 @@
       <c r="BH8" s="17"/>
       <c r="BI8" s="18"/>
     </row>
-    <row r="9" spans="2:61" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="140" t="s">
+    <row r="9" spans="2:61" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -9247,8 +9268,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:61" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="140"/>
+    <row r="10" spans="2:61" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="143"/>
       <c r="D10" s="19" t="s">
         <v>20</v>
       </c>
@@ -9404,8 +9425,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:61" ht="25.85" x14ac:dyDescent="0.3">
-      <c r="C11" s="140"/>
+    <row r="11" spans="2:61" ht="25.05" x14ac:dyDescent="0.3">
+      <c r="C11" s="143"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
@@ -9513,8 +9534,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:61" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="140"/>
+    <row r="12" spans="2:61" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="143"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -9598,7 +9619,7 @@
       <c r="BH12" s="30"/>
       <c r="BI12" s="29"/>
     </row>
-    <row r="13" spans="2:61" s="32" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:61" s="32" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="31"/>
       <c r="D13" s="19" t="s">
         <v>44</v>
@@ -9775,7 +9796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:61" ht="14.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:61" ht="15.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="33" t="s">
         <v>46</v>
       </c>
@@ -9954,7 +9975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -10136,7 +10157,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
@@ -10318,7 +10339,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>77</v>
       </c>
@@ -10500,7 +10521,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
@@ -10682,7 +10703,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -10864,7 +10885,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
@@ -11046,7 +11067,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
@@ -11228,7 +11249,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="2:61" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:61" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
@@ -11410,7 +11431,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>77</v>
       </c>
@@ -11592,7 +11613,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
@@ -11774,7 +11795,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
@@ -11957,7 +11978,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
@@ -12139,7 +12160,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
@@ -12322,7 +12343,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
@@ -12504,7 +12525,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
@@ -12686,7 +12707,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
@@ -12868,7 +12889,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
@@ -13050,7 +13071,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
@@ -13232,7 +13253,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
@@ -13414,7 +13435,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>77</v>
       </c>
@@ -13596,7 +13617,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
@@ -13778,7 +13799,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
@@ -13961,7 +13982,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="2:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:61" ht="20.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
@@ -14143,7 +14164,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="2:61" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:61" ht="20.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
@@ -14325,27 +14346,27 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C40" s="64" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C41" s="64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C42" s="64" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C43" s="64" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C44" s="64" t="s">
         <v>73</v>
       </c>
@@ -14355,18 +14376,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C46" s="64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C47" s="64"/>
     </row>
-    <row r="48" spans="2:61" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:61" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C48" s="64"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C49" s="64" t="s">
         <v>47</v>
       </c>
@@ -14375,7 +14396,7 @@
         <v>8907</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>48</v>
       </c>
@@ -14384,7 +14405,7 @@
         <v>8460</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>49</v>
       </c>
@@ -14393,7 +14414,7 @@
         <v>8671</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>50</v>
       </c>
@@ -14402,7 +14423,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
@@ -14411,7 +14432,7 @@
         <v>8872</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>52</v>
       </c>
@@ -14420,7 +14441,7 @@
         <v>8596</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>53</v>
       </c>
@@ -14429,7 +14450,7 @@
         <v>8309</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>54</v>
       </c>
@@ -14438,7 +14459,7 @@
         <v>8499</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>55</v>
       </c>
@@ -14447,7 +14468,7 @@
         <v>9425</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>56</v>
       </c>
@@ -14456,7 +14477,7 @@
         <v>8581</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>57</v>
       </c>
@@ -14465,7 +14486,7 @@
         <v>8487</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>58</v>
       </c>
@@ -14474,7 +14495,7 @@
         <v>9345</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" ht="15.05" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>59</v>
       </c>
@@ -14602,21 +14623,21 @@
       <selection activeCell="C9" sqref="C9:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="85.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="85.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
     <col min="29" max="29" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:28" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.65">
       <c r="K2" s="115" t="s">
         <v>116</v>
       </c>
@@ -14624,7 +14645,7 @@
       <c r="N2" s="108"/>
       <c r="O2" s="108"/>
     </row>
-    <row r="3" spans="1:28" ht="36" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:28" ht="36.35" x14ac:dyDescent="0.65">
       <c r="J3" s="115" t="s">
         <v>107</v>
       </c>
@@ -14634,7 +14655,7 @@
       <c r="N3" s="108"/>
       <c r="O3" s="108"/>
     </row>
-    <row r="8" spans="1:28" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A8" s="138" t="s">
         <v>5</v>
       </c>
@@ -14720,7 +14741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="73.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="73.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="139" t="s">
         <v>6</v>
       </c>
@@ -14830,7 +14851,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="82.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="82.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="139" t="s">
         <v>6</v>
       </c>
@@ -14940,7 +14961,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="77.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="77.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="139" t="s">
         <v>6</v>
       </c>
@@ -15050,7 +15071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="88.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="139" t="s">
         <v>6</v>
       </c>
@@ -15160,7 +15181,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="59.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="139" t="s">
         <v>6</v>
       </c>
@@ -15270,7 +15291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="59.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="59.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="139" t="s">
         <v>6</v>
       </c>
@@ -15380,7 +15401,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="71.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="139" t="s">
         <v>6</v>
       </c>
@@ -15490,7 +15511,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="59.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="139" t="s">
         <v>6</v>
       </c>
@@ -15600,7 +15621,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="65.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="65.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="139" t="s">
         <v>6</v>
       </c>
@@ -15710,7 +15731,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="22.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="139" t="s">
         <v>6</v>
       </c>
@@ -15820,7 +15841,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="54.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="54.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="139" t="s">
         <v>6</v>
       </c>
@@ -15930,7 +15951,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="139" t="s">
         <v>6</v>
       </c>
@@ -16040,7 +16061,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="82.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="137" t="s">
         <v>7</v>
       </c>
@@ -16150,7 +16171,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="77.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="77.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="137" t="s">
         <v>7</v>
       </c>
@@ -16260,7 +16281,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="22.45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="21.95" x14ac:dyDescent="0.3">
       <c r="A23" s="137" t="s">
         <v>7</v>
       </c>
@@ -16370,7 +16391,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="22.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="137" t="s">
         <v>7</v>
       </c>
@@ -16480,7 +16501,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="22.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="137" t="s">
         <v>7</v>
       </c>
@@ -16590,7 +16611,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="139" t="s">
         <v>9</v>
       </c>
@@ -16700,7 +16721,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="139" t="s">
         <v>9</v>
       </c>
@@ -16810,7 +16831,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="139" t="s">
         <v>9</v>
       </c>
@@ -16920,7 +16941,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="139" t="s">
         <v>9</v>
       </c>
@@ -17030,7 +17051,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="139" t="s">
         <v>9</v>
       </c>
@@ -17140,7 +17161,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="139" t="s">
         <v>9</v>
       </c>
@@ -17250,7 +17271,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="139" t="s">
         <v>9</v>
       </c>
@@ -17358,7 +17379,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="139" t="s">
         <v>9</v>
       </c>
@@ -17468,7 +17489,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="19.05" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="18.2" x14ac:dyDescent="0.35">
       <c r="B38" s="117"/>
       <c r="C38" s="117"/>
     </row>
@@ -17483,44 +17504,53 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="C1:J28"/>
+  <dimension ref="C1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C28"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11" style="141"/>
-    <col min="3" max="3" width="66.75" style="141" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.875" style="141" customWidth="1"/>
-    <col min="5" max="5" width="100.375" style="141" customWidth="1"/>
-    <col min="6" max="6" width="255.625" style="141" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="141"/>
+    <col min="1" max="2" width="11" style="140"/>
+    <col min="3" max="3" width="66.77734375" style="140" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.88671875" style="140" customWidth="1"/>
+    <col min="5" max="5" width="100.33203125" style="140" customWidth="1"/>
+    <col min="6" max="6" width="255.6640625" style="140" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="140"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="142" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="135" t="s">
         <v>153</v>
       </c>
       <c r="D4" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="140" t="s">
         <v>135</v>
       </c>
       <c r="F4" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-    </row>
-    <row r="5" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="135" t="s">
         <v>154</v>
       </c>
@@ -17530,30 +17560,22 @@
       <c r="F5" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-    </row>
-    <row r="6" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="135" t="s">
         <v>155</v>
       </c>
       <c r="D6" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="140" t="s">
         <v>139</v>
       </c>
       <c r="F6" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-    </row>
-    <row r="7" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="135" t="s">
         <v>156</v>
       </c>
@@ -17563,30 +17585,22 @@
       <c r="F7" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-    </row>
-    <row r="8" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="142" t="s">
+    </row>
+    <row r="8" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="141" t="s">
         <v>157</v>
       </c>
       <c r="D8" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="140" t="s">
         <v>142</v>
       </c>
       <c r="F8" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-    </row>
-    <row r="9" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="135" t="s">
         <v>158</v>
       </c>
@@ -17596,30 +17610,22 @@
       <c r="F9" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-    </row>
-    <row r="10" spans="3:10" ht="48.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="3:6" ht="48.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="135" t="s">
         <v>170</v>
       </c>
       <c r="D10" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="141" t="s">
+      <c r="E10" s="140" t="s">
         <v>144</v>
       </c>
       <c r="F10" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-    </row>
-    <row r="11" spans="3:10" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="3:6" ht="44.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="135" t="s">
         <v>158</v>
       </c>
@@ -17629,30 +17635,22 @@
       <c r="F11" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-    </row>
-    <row r="12" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="142" t="s">
+    </row>
+    <row r="12" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="141" t="s">
         <v>165</v>
       </c>
       <c r="D12" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="141" t="s">
+      <c r="E12" s="140" t="s">
         <v>145</v>
       </c>
       <c r="F12" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-    </row>
-    <row r="13" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="136" t="s">
         <v>82</v>
       </c>
@@ -17662,30 +17660,22 @@
       <c r="F13" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-    </row>
-    <row r="14" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="142" t="s">
+    </row>
+    <row r="14" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="141" t="s">
         <v>171</v>
       </c>
       <c r="D14" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="140" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-    </row>
-    <row r="15" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="135" t="s">
         <v>159</v>
       </c>
@@ -17695,13 +17685,9 @@
       <c r="F15" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-    </row>
-    <row r="16" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="142" t="s">
+    </row>
+    <row r="16" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="141" t="s">
         <v>160</v>
       </c>
       <c r="D16" s="136" t="s">
@@ -17710,12 +17696,8 @@
       <c r="F16" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-    </row>
-    <row r="17" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="135" t="s">
         <v>154</v>
       </c>
@@ -17725,12 +17707,8 @@
       <c r="F17" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-    </row>
-    <row r="18" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="136" t="s">
         <v>98</v>
       </c>
@@ -17740,12 +17718,8 @@
       <c r="F18" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-    </row>
-    <row r="19" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="136" t="s">
         <v>97</v>
       </c>
@@ -17755,12 +17729,8 @@
       <c r="F19" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-    </row>
-    <row r="20" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="135" t="s">
         <v>161</v>
       </c>
@@ -17770,12 +17740,8 @@
       <c r="F20" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-    </row>
-    <row r="21" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="135" t="s">
         <v>93</v>
       </c>
@@ -17785,12 +17751,8 @@
       <c r="F21" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-    </row>
-    <row r="22" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="135" t="s">
         <v>94</v>
       </c>
@@ -17800,12 +17762,8 @@
       <c r="F22" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-    </row>
-    <row r="23" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="135" t="s">
         <v>18</v>
       </c>
@@ -17815,30 +17773,22 @@
       <c r="F23" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-    </row>
-    <row r="24" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="135" t="s">
         <v>162</v>
       </c>
       <c r="D24" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="141" t="s">
+      <c r="E24" s="140" t="s">
         <v>150</v>
       </c>
       <c r="F24" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-    </row>
-    <row r="25" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="135" t="s">
         <v>124</v>
       </c>
@@ -17848,12 +17798,8 @@
       <c r="F25" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-    </row>
-    <row r="26" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="135" t="s">
         <v>95</v>
       </c>
@@ -17863,12 +17809,8 @@
       <c r="F26" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-    </row>
-    <row r="27" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="135" t="s">
         <v>19</v>
       </c>
@@ -17878,12 +17820,8 @@
       <c r="F27" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-    </row>
-    <row r="28" spans="3:10" ht="25.3" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:6" ht="25.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="135" t="s">
         <v>163</v>
       </c>
@@ -17893,13 +17831,10 @@
       <c r="F28" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17910,25 +17845,25 @@
   </sheetPr>
   <dimension ref="A2:AB38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="85.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="85.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
     <col min="29" max="29" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="36" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:28" ht="36.35" x14ac:dyDescent="0.65">
       <c r="K2" s="115" t="s">
         <v>125</v>
       </c>
@@ -17936,7 +17871,7 @@
       <c r="N2" s="108"/>
       <c r="O2" s="108"/>
     </row>
-    <row r="3" spans="1:28" ht="36" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:28" ht="36.35" x14ac:dyDescent="0.65">
       <c r="J3" s="115" t="s">
         <v>107</v>
       </c>
@@ -17946,8 +17881,8 @@
       <c r="N3" s="108"/>
       <c r="O3" s="108"/>
     </row>
-    <row r="7" spans="1:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:28" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:28" ht="30.05" x14ac:dyDescent="0.3">
       <c r="A8" s="138" t="s">
         <v>5</v>
       </c>
@@ -18033,7 +17968,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="73.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="73.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="139" t="s">
         <v>6</v>
       </c>
@@ -18143,7 +18078,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="82.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="82.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="139" t="s">
         <v>6</v>
       </c>
@@ -18253,7 +18188,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="77.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="77.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="139" t="s">
         <v>6</v>
       </c>
@@ -18363,7 +18298,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="88.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="139" t="s">
         <v>6</v>
       </c>
@@ -18473,7 +18408,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="59.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="139" t="s">
         <v>6</v>
       </c>
@@ -18583,7 +18518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="59.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="59.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="139" t="s">
         <v>6</v>
       </c>
@@ -18693,7 +18628,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="71.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="139" t="s">
         <v>6</v>
       </c>
@@ -18803,7 +18738,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="59.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="139" t="s">
         <v>6</v>
       </c>
@@ -18913,7 +18848,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="65.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="65.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="139" t="s">
         <v>6</v>
       </c>
@@ -19023,7 +18958,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="22.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="139" t="s">
         <v>6</v>
       </c>
@@ -19133,7 +19068,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="54.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="54.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="139" t="s">
         <v>6</v>
       </c>
@@ -19243,7 +19178,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="139" t="s">
         <v>6</v>
       </c>
@@ -19353,7 +19288,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="82.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="137" t="s">
         <v>7</v>
       </c>
@@ -19463,7 +19398,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="77.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="77.349999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="137" t="s">
         <v>7</v>
       </c>
@@ -19573,7 +19508,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="22.45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="21.95" x14ac:dyDescent="0.3">
       <c r="A23" s="137" t="s">
         <v>7</v>
       </c>
@@ -19683,7 +19618,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="22.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="137" t="s">
         <v>7</v>
       </c>
@@ -19793,7 +19728,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="22.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="137" t="s">
         <v>7</v>
       </c>
@@ -19903,7 +19838,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="139" t="s">
         <v>9</v>
       </c>
@@ -20013,7 +19948,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="139" t="s">
         <v>9</v>
       </c>
@@ -20123,7 +20058,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="139" t="s">
         <v>9</v>
       </c>
@@ -20233,7 +20168,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="139" t="s">
         <v>9</v>
       </c>
@@ -20343,7 +20278,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="139" t="s">
         <v>9</v>
       </c>
@@ -20453,7 +20388,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="139" t="s">
         <v>9</v>
       </c>
@@ -20563,7 +20498,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="139" t="s">
         <v>9</v>
       </c>
@@ -20671,7 +20606,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="26.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="139" t="s">
         <v>9</v>
       </c>
@@ -20781,7 +20716,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="19.05" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="18.2" x14ac:dyDescent="0.35">
       <c r="B38" s="117"/>
       <c r="C38" s="117"/>
     </row>
@@ -20798,21 +20733,21 @@
   </sheetPr>
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.95" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="67" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="67" customWidth="1"/>
-    <col min="4" max="29" width="15.875" style="67" customWidth="1"/>
-    <col min="30" max="30" width="14.625" style="67" customWidth="1"/>
-    <col min="31" max="16384" width="11.5" style="67"/>
+    <col min="1" max="1" width="7.33203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="67" customWidth="1"/>
+    <col min="4" max="29" width="15.88671875" style="67" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" style="67" customWidth="1"/>
+    <col min="31" max="16384" width="11.44140625" style="67"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.65" x14ac:dyDescent="0.3">
       <c r="B2" s="68" t="s">
         <v>86</v>
       </c>
@@ -21243,6 +21178,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BF9F5E6D49D8C54980CA2FBC3F2D4812" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a126030d1b6166d2716ee2d368a3fa26">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xmlns:ns4="cc23cce4-8344-420b-ad4b-749dc405dcfb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fcdcb7b5d48886db9cb8d6a2d1934233" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21492,7 +21436,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -21506,16 +21450,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C835D6-0435-482D-A23A-2A1D85CBAD8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590953DD-7D8A-4D69-A1A3-4E86368ABF71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21535,7 +21478,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8594970D-2047-4AAF-9058-821D1442DF87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -21551,12 +21494,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C835D6-0435-482D-A23A-2A1D85CBAD8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Tarifario SOAT 202102.xlsx
+++ b/Tarifario SOAT 202102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\GIT\SOAT - TCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EEC1E0-AC03-4A6A-9B63-F00E11E2E261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49BF16F-E139-4694-B310-4530E9BA73BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="742" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" tabRatio="742" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TD-CrecerSeguros v.2" sheetId="12" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="177">
   <si>
     <t>Canal o Broker</t>
   </si>
@@ -1642,6 +1642,9 @@
   <si>
     <t>MINIMO</t>
   </si>
+  <si>
+    <t>No riesgo /5</t>
+  </si>
 </sst>
 </file>
 
@@ -14619,8 +14622,8 @@
   </sheetPr>
   <dimension ref="A2:AB38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C33"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -15959,7 +15962,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D20" s="111" t="s">
         <v>103</v>
@@ -17845,8 +17848,8 @@
   </sheetPr>
   <dimension ref="A2:AB38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -19186,7 +19189,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D20" s="111" t="s">
         <v>103</v>
@@ -20733,7 +20736,7 @@
   </sheetPr>
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -21187,6 +21190,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MigrationWizId xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
+    <MigrationWizIdPermissionLevels xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
+    <MigrationWizIdSecurityGroups xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
+    <MigrationWizIdPermissions xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MigrationWizIdDocumentLibraryPermissions xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BF9F5E6D49D8C54980CA2FBC3F2D4812" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a126030d1b6166d2716ee2d368a3fa26">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xmlns:ns4="cc23cce4-8344-420b-ad4b-749dc405dcfb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fcdcb7b5d48886db9cb8d6a2d1934233" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21436,20 +21453,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MigrationWizId xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
-    <MigrationWizIdPermissionLevels xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
-    <MigrationWizIdSecurityGroups xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
-    <MigrationWizIdPermissions xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MigrationWizIdDocumentLibraryPermissions xmlns="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C835D6-0435-482D-A23A-2A1D85CBAD8C}">
   <ds:schemaRefs>
@@ -21459,6 +21462,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8594970D-2047-4AAF-9058-821D1442DF87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc23cce4-8344-420b-ad4b-749dc405dcfb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590953DD-7D8A-4D69-A1A3-4E86368ABF71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21476,22 +21497,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8594970D-2047-4AAF-9058-821D1442DF87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cc23cce4-8344-420b-ad4b-749dc405dcfb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9ca9cbb3-5d5c-402c-b878-e0bee9e4b3a8"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>